--- a/Forecast/downloadable/CSU_Forecast_Verifications(1984-2023).xlsx
+++ b/Forecast/downloadable/CSU_Forecast_Verifications(1984-2023).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjklotz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EE506-E295-475E-BF08-D7F44D8DC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C0613-53A8-4FE3-8E26-4A5F038409F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="5" state="veryHidden" r:id="rId1"/>
@@ -1314,10 +1314,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'CSU Forecasts'!$AK$3:$AK$41</c:f>
+              <c:f>'CSU Forecasts'!$AK$3:$AK$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -1434,16 +1434,19 @@
                 </c:pt>
                 <c:pt idx="38" formatCode="0">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CSU Forecasts'!$AN$3:$AN$41</c:f>
+              <c:f>'CSU Forecasts'!$AN$3:$AN$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>108.86495500000001</c:v>
                 </c:pt>
@@ -1560,6 +1563,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,10 +1609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'CSU Forecasts'!$AK$3:$AK$41</c:f>
+              <c:f>'CSU Forecasts'!$AK$3:$AK$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -1723,16 +1729,19 @@
                 </c:pt>
                 <c:pt idx="38" formatCode="0">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CSU Forecasts'!$AO$3:$AO$41</c:f>
+              <c:f>'CSU Forecasts'!$AO$3:$AO$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>84.294999999999774</c:v>
                 </c:pt>
@@ -1849,6 +1858,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>148.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3241,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3827,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
